--- a/Framework/data/APITest.xlsx
+++ b/Framework/data/APITest.xlsx
@@ -4,98 +4,42 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20100" windowHeight="11595"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
-    <sheet name="InfoCheck" sheetId="1" r:id="rId1"/>
+    <sheet name="sss" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
-    <t>guildId</t>
+    <t>accountId</t>
   </si>
   <si>
-    <r>
-      <t>gui</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Name</t>
-    </r>
+    <t>promoter</t>
   </si>
   <si>
-    <r>
-      <t>de</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>claration</t>
-    </r>
+    <t>channelKey</t>
   </si>
   <si>
-    <r>
-      <t>sub</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Time</t>
-    </r>
-  </si>
-  <si>
-    <t>自动化测试</t>
-  </si>
-  <si>
-    <t>nowtime</t>
+    <t>1020001409</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,6 +60,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -124,28 +75,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -156,9 +85,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,32 +98,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,12 +136,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -222,6 +158,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -229,24 +181,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,16 +191,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -281,181 +219,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,6 +404,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,32 +434,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,9 +457,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,13 +481,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,10 +512,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,137 +524,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +662,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1051,14 +992,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="2" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1071,23 +1011,19 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3">
-        <v>10000</v>
+        <v>2073</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
+      <c r="B2" s="3">
+        <v>2070</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="D2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
